--- a/PlanForCompletion.xlsx
+++ b/PlanForCompletion.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="project steps for services" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="design priciple" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Work Item</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Repository pattern with entity framework</t>
+  </si>
+  <si>
+    <t>The repositoy pattern can help to code in such a wa that tomorrow if we want to replace entity framework with diffent ORM we can easily do it.</t>
+  </si>
+  <si>
+    <t>The Architeture should be independent of framework.</t>
+  </si>
+  <si>
+    <t>Simplicity is the ultimate sophistication - Leonardo Da Vinci</t>
+  </si>
+  <si>
+    <t>Repository patten should completely encapsulate query and should not expose it to the above layer</t>
   </si>
 </sst>
 </file>
@@ -395,17 +410,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="106.5703125" customWidth="1"/>
     <col min="16323" max="16323" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -500,6 +515,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -508,12 +534,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="96.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
